--- a/DungeonsAndDragons/resources/PercianBattleCard.xlsx
+++ b/DungeonsAndDragons/resources/PercianBattleCard.xlsx
@@ -406,9 +406,6 @@
     </r>
   </si>
   <si>
-    <t>3 vs Will; 6d6 + 3 modifier radiant damage.</t>
-  </si>
-  <si>
     <t>If I rolled an even number on the attack, the target takes</t>
   </si>
   <si>
@@ -637,6 +634,9 @@
   </si>
   <si>
     <t>my next turn.</t>
+  </si>
+  <si>
+    <t>Ranged 10; 3 vs Will; 6d6 + 3 modifier radiant damage.</t>
   </si>
 </sst>
 </file>
@@ -1240,8 +1240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1418,7 +1418,7 @@
     <row r="21" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="5" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -1426,7 +1426,7 @@
     <row r="22" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5"/>
       <c r="B22" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -1434,7 +1434,7 @@
     <row r="23" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5"/>
       <c r="B23" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -1442,7 +1442,7 @@
     <row r="24" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
       <c r="B24" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
@@ -1450,7 +1450,7 @@
     <row r="25" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -1458,7 +1458,7 @@
     <row r="26" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5"/>
       <c r="B26" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
@@ -1466,7 +1466,7 @@
     <row r="27" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
       <c r="B27" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
@@ -1474,7 +1474,7 @@
     <row r="28" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -1482,7 +1482,7 @@
     <row r="29" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
       <c r="B29" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
@@ -1490,7 +1490,7 @@
     <row r="30" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5"/>
       <c r="B30" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
@@ -1498,7 +1498,7 @@
     <row r="31" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5"/>
       <c r="B31" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
@@ -1515,7 +1515,7 @@
     </row>
     <row r="33" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -1524,33 +1524,33 @@
     <row r="34" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
       <c r="B34" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
     </row>
     <row r="35" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/DungeonsAndDragons/resources/PercianBattleCard.xlsx
+++ b/DungeonsAndDragons/resources/PercianBattleCard.xlsx
@@ -75,9 +75,6 @@
     <t>Percian</t>
   </si>
   <si>
-    <t>Level 1 Striker</t>
-  </si>
-  <si>
     <t>Medium Elf Sorcerer</t>
   </si>
   <si>
@@ -90,6 +87,206 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>Speed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 7</t>
+    </r>
+  </si>
+  <si>
+    <t>Chaos Bolt (standard; at-will) - Implement</t>
+  </si>
+  <si>
+    <t>even number for the attack roll, make a secondary attack:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Secondary target: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>One creature within 5 squares of the</t>
+    </r>
+  </si>
+  <si>
+    <t>last target hit by this power.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Storm Walk </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(standard; at-will) - Implement</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Effect: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Before or after attack, I shift 1 square.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Bedeviling Burst </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(standard; Encounter) - Implement</t>
+    </r>
+  </si>
+  <si>
+    <t>I rolled an even number on the attack, slide instead of push.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Dazzling Ray </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(standard; Daily) - Implement</t>
+    </r>
+  </si>
+  <si>
+    <t>If I rolled an even number on the attack, the target takes</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Miss: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Half damage.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Elven Accuracy </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(free; Encounter) - Personal</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Effect: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Reroll an attack roll. Use the second roll, even</t>
+    </r>
+  </si>
+  <si>
+    <t>if it's lower.</t>
+  </si>
+  <si>
+    <t>Arcane Spellfury</t>
+  </si>
+  <si>
+    <t>When I hit an enemy with an at-will attack, I gain a +1</t>
+  </si>
+  <si>
+    <t>bonus to attack rolls against that target until the end of</t>
+  </si>
+  <si>
+    <t>my next turn.</t>
+  </si>
+  <si>
+    <t>Level 2 Striker</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Initiative</t>
     </r>
     <r>
@@ -100,7 +297,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> +3</t>
+      <t xml:space="preserve"> +4</t>
     </r>
   </si>
   <si>
@@ -123,7 +320,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Perception +3; low-light vision</t>
+      <t xml:space="preserve"> Perception +4; low-light vision</t>
     </r>
   </si>
   <si>
@@ -146,7 +343,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 23; </t>
+      <t xml:space="preserve"> 28; </t>
     </r>
     <r>
       <rPr>
@@ -167,7 +364,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 11</t>
+      <t xml:space="preserve"> 14</t>
     </r>
   </si>
   <si>
@@ -190,7 +387,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 13; </t>
+      <t xml:space="preserve"> 14; </t>
     </r>
     <r>
       <rPr>
@@ -211,7 +408,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 11; </t>
+      <t xml:space="preserve"> 12; </t>
     </r>
     <r>
       <rPr>
@@ -232,7 +429,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 13; </t>
+      <t xml:space="preserve"> 14; </t>
     </r>
     <r>
       <rPr>
@@ -253,211 +450,29 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 15</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Speed</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 7</t>
-    </r>
-  </si>
-  <si>
-    <t>Chaos Bolt (standard; at-will) - Implement</t>
-  </si>
-  <si>
-    <t>Ranged 10; 3 vs Will; 1d10 + 3 psychic damage. If I roll an</t>
-  </si>
-  <si>
-    <t>even number for the attack roll, make a secondary attack:</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Secondary target: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>One creature within 5 squares of the</t>
-    </r>
-  </si>
-  <si>
-    <t>last target hit by this power.</t>
-  </si>
-  <si>
-    <t>3 vs Will; 1d6 psychic damage. Repeat if even number.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Storm Walk </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(standard; at-will) - Implement</t>
-    </r>
-  </si>
-  <si>
-    <t>Ranged 10; 3 vs Fortitude; 1d8 + 3 thunder damage.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Effect: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Before or after attack, I shift 1 square.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Bedeviling Burst </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(standard; Encounter) - Implement</t>
-    </r>
-  </si>
-  <si>
-    <t>1 or 2 creatures in close burst 3; 3 vs Will</t>
-  </si>
-  <si>
-    <t>1d10 + 3 psychic damage, and push the target 3 squares. If</t>
-  </si>
-  <si>
-    <t>I rolled an even number on the attack, slide instead of push.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Dazzling Ray </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(standard; Daily) - Implement</t>
-    </r>
-  </si>
-  <si>
-    <t>If I rolled an even number on the attack, the target takes</t>
-  </si>
-  <si>
-    <t>a -3 penalty to attack rolls against me (save ends).</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Miss: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Half damage.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Elven Accuracy </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(free; Encounter) - Personal</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Effect: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Reroll an attack roll. Use the second roll, even</t>
-    </r>
-  </si>
-  <si>
-    <t>if it's lower.</t>
+      <t xml:space="preserve"> 16</t>
+    </r>
+  </si>
+  <si>
+    <t>Ranged 10; 4 vs Will; 1d10 + 4 psychic damage. If I roll an</t>
+  </si>
+  <si>
+    <t>4 vs Will; 1d6 psychic damage. Repeat if even number.</t>
+  </si>
+  <si>
+    <t>Ranged 10; 4 vs Fortitude; 1d8 + 4 thunder damage.</t>
+  </si>
+  <si>
+    <t>1 or 2 creatures in close burst 3; 4 vs Will</t>
+  </si>
+  <si>
+    <t>1d10 + 4 psychic damage, and push the target 4 squares. If</t>
+  </si>
+  <si>
+    <t>Ranged 10; 4 vs Will; 6d6 + 4 modifier radiant damage.</t>
+  </si>
+  <si>
+    <t>a -4 penalty to attack rolls against me (save ends).</t>
   </si>
   <si>
     <r>
@@ -479,11 +494,11 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 3 acro, 6 arc, 1 ath, 8 blu, 3 dip, 1 dun, 5 end, 1 heal,</t>
-    </r>
-  </si>
-  <si>
-    <t>1 his, 6 ins, 3 int, 3 nat, 3 perc, 1 rel, 1 ste, 3 str, 1 thiev</t>
+      <t xml:space="preserve"> 4 acro, 7 arc, 2 ath, 9 blu, 4 dip, 2 dun, 6 end, 2 heal,</t>
+    </r>
+  </si>
+  <si>
+    <t>2 his, 7 ins, 4 int, 4 nat, 4 perc, 2 rel, 2 ste, 4 str, 4 thiev</t>
   </si>
   <si>
     <r>
@@ -505,7 +520,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 12 (+1)</t>
+      <t xml:space="preserve"> 12 (+2)</t>
     </r>
   </si>
   <si>
@@ -528,7 +543,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 11 (+0)</t>
+      <t xml:space="preserve"> 11 (+1)</t>
     </r>
   </si>
   <si>
@@ -551,7 +566,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 16 (+3)</t>
+      <t xml:space="preserve"> 16 (+4)</t>
     </r>
   </si>
   <si>
@@ -574,7 +589,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 13 (+1)</t>
+      <t xml:space="preserve"> 13 (+2)</t>
     </r>
   </si>
   <si>
@@ -597,7 +612,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 12 (+1)</t>
+      <t xml:space="preserve"> 12 (+2)</t>
     </r>
   </si>
   <si>
@@ -620,23 +635,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 16 (+3)</t>
-    </r>
-  </si>
-  <si>
-    <t>Arcane Spellfury</t>
-  </si>
-  <si>
-    <t>When I hit an enemy with an at-will attack, I gain a +1</t>
-  </si>
-  <si>
-    <t>bonus to attack rolls against that target until the end of</t>
-  </si>
-  <si>
-    <t>my next turn.</t>
-  </si>
-  <si>
-    <t>Ranged 10; 3 vs Will; 6d6 + 3 modifier radiant damage.</t>
+      <t xml:space="preserve"> 16 (+4)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1240,8 +1240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1260,12 +1260,12 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="2" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1273,17 +1273,17 @@
     </row>
     <row r="3" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="D3" s="5"/>
     </row>
     <row r="4" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -1291,7 +1291,7 @@
     </row>
     <row r="5" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -1299,7 +1299,7 @@
     </row>
     <row r="6" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -1308,7 +1308,7 @@
     <row r="7" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -1316,7 +1316,7 @@
     <row r="8" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="5" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -1324,7 +1324,7 @@
     <row r="9" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="5" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -1332,7 +1332,7 @@
     <row r="10" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="7" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -1340,7 +1340,7 @@
     <row r="11" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -1348,14 +1348,14 @@
     <row r="12" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="5" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
     </row>
     <row r="13" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="4" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -1363,7 +1363,7 @@
     <row r="14" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="5" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -1371,14 +1371,14 @@
     <row r="15" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
       <c r="B15" s="5" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
     </row>
     <row r="16" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="4" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -1386,7 +1386,7 @@
     <row r="17" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -1394,7 +1394,7 @@
     <row r="18" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
       <c r="B18" s="8" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -1402,7 +1402,7 @@
     <row r="19" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="8" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -1410,7 +1410,7 @@
     <row r="20" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="9" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -1418,7 +1418,7 @@
     <row r="21" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="5" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -1426,7 +1426,7 @@
     <row r="22" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5"/>
       <c r="B22" s="5" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -1434,7 +1434,7 @@
     <row r="23" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5"/>
       <c r="B23" s="5" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -1442,7 +1442,7 @@
     <row r="24" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
       <c r="B24" s="7" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
@@ -1450,7 +1450,7 @@
     <row r="25" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="B25" s="9" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -1458,7 +1458,7 @@
     <row r="26" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5"/>
       <c r="B26" s="7" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
@@ -1466,7 +1466,7 @@
     <row r="27" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
       <c r="B27" s="5" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
@@ -1474,7 +1474,7 @@
     <row r="28" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="9" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -1482,7 +1482,7 @@
     <row r="29" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
       <c r="B29" s="8" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
@@ -1490,7 +1490,7 @@
     <row r="30" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5"/>
       <c r="B30" s="5" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
@@ -1498,7 +1498,7 @@
     <row r="31" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="5"/>
       <c r="B31" s="5" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
@@ -1515,7 +1515,7 @@
     </row>
     <row r="33" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -1524,33 +1524,33 @@
     <row r="34" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
       <c r="B34" s="4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
     </row>
     <row r="35" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="4" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
